--- a/RPA09_의약품안전나라_RE_김지연/Data/Output/의약품_행정처분_조회내역_25년05월_김지연.xlsx
+++ b/RPA09_의약품안전나라_RE_김지연/Data/Output/의약품_행정처분_조회내역_25년05월_김지연.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPAWorkspace\RPA09_의약품안전나라_RE_김지연\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5860AA9E-0910-4371-AD6D-15D53E9909F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C46FE4-A6F7-4661-A5CD-13C3ED1BE3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{FDB3719D-74EE-4F4E-B2D9-1A67A284CDAB}"/>
   </x:bookViews>
@@ -2200,94 +2200,150 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="s">
+      <x:c r="B12" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="C12" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="D12" s="1" t="s">
         <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4" s="0" customFormat="1" x14ac:dyDescent="0.4">
@@ -2375,44 +2431,72 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
+      <x:c r="A7" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s">
+      <x:c r="B7" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="C7" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
+      <x:c r="D7" s="1" t="s">
         <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
+      <x:c r="A8" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4" s="0" customFormat="1" x14ac:dyDescent="0.4">
@@ -2492,24 +2576,52 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>85</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
